--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Insl5</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +540,10 @@
         <v>1.13714</v>
       </c>
       <c r="I2">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J2">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.022828</v>
+        <v>0.01118366666666667</v>
       </c>
       <c r="N2">
-        <v>0.068484</v>
+        <v>0.033551</v>
       </c>
       <c r="O2">
-        <v>0.07816148625976677</v>
+        <v>0.1526349789820392</v>
       </c>
       <c r="P2">
-        <v>0.07816148625976678</v>
+        <v>0.1526349789820392</v>
       </c>
       <c r="Q2">
-        <v>0.008652877306666668</v>
+        <v>0.004239131571111112</v>
       </c>
       <c r="R2">
-        <v>0.07787589576000001</v>
+        <v>0.03815218414</v>
       </c>
       <c r="S2">
-        <v>0.05492668710054721</v>
+        <v>0.135057145524718</v>
       </c>
       <c r="T2">
-        <v>0.05492668710054723</v>
+        <v>0.1350571455247179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +602,10 @@
         <v>1.13714</v>
       </c>
       <c r="I3">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J3">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>0.072257</v>
       </c>
       <c r="O3">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
       <c r="P3">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
       <c r="Q3">
         <v>0.009129591664444445</v>
@@ -635,10 +632,10 @@
         <v>0.08216632498000001</v>
       </c>
       <c r="S3">
-        <v>0.05795277188575784</v>
+        <v>0.2908653740329513</v>
       </c>
       <c r="T3">
-        <v>0.05795277188575785</v>
+        <v>0.2908653740329512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +664,10 @@
         <v>1.13714</v>
       </c>
       <c r="I4">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J4">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2451483333333333</v>
+        <v>0.03800133333333333</v>
       </c>
       <c r="N4">
-        <v>0.7354449999999999</v>
+        <v>0.114004</v>
       </c>
       <c r="O4">
-        <v>0.8393708641772408</v>
+        <v>0.5186432041926737</v>
       </c>
       <c r="P4">
-        <v>0.8393708641772409</v>
+        <v>0.5186432041926737</v>
       </c>
       <c r="Q4">
-        <v>0.09292265858888889</v>
+        <v>0.01440427872888889</v>
       </c>
       <c r="R4">
-        <v>0.8363039272999999</v>
+        <v>0.12963850856</v>
       </c>
       <c r="S4">
-        <v>0.5898539424487754</v>
+        <v>0.458914930058715</v>
       </c>
       <c r="T4">
-        <v>0.5898539424487756</v>
+        <v>0.458914930058715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H5">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I5">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J5">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.022828</v>
+        <v>0.01118366666666667</v>
       </c>
       <c r="N5">
-        <v>0.068484</v>
+        <v>0.033551</v>
       </c>
       <c r="O5">
-        <v>0.07816148625976677</v>
+        <v>0.1526349789820392</v>
       </c>
       <c r="P5">
-        <v>0.07816148625976678</v>
+        <v>0.1526349789820392</v>
       </c>
       <c r="Q5">
-        <v>0.0004572296213333333</v>
+        <v>0.0005517275555555557</v>
       </c>
       <c r="R5">
-        <v>0.004115066592000001</v>
+        <v>0.004965548</v>
       </c>
       <c r="S5">
-        <v>0.002902399682095152</v>
+        <v>0.01757783345732123</v>
       </c>
       <c r="T5">
-        <v>0.002902399682095152</v>
+        <v>0.01757783345732122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H6">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I6">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J6">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +806,22 @@
         <v>0.072257</v>
       </c>
       <c r="O6">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
       <c r="P6">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
       <c r="Q6">
-        <v>0.0004824198462222223</v>
+        <v>0.001188226222222223</v>
       </c>
       <c r="R6">
-        <v>0.004341778616</v>
+        <v>0.010694036</v>
       </c>
       <c r="S6">
-        <v>0.003062302053459923</v>
+        <v>0.03785644279233585</v>
       </c>
       <c r="T6">
-        <v>0.003062302053459923</v>
+        <v>0.03785644279233584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H7">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I7">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J7">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2451483333333333</v>
+        <v>0.03800133333333333</v>
       </c>
       <c r="N7">
-        <v>0.7354449999999999</v>
+        <v>0.114004</v>
       </c>
       <c r="O7">
-        <v>0.8393708641772408</v>
+        <v>0.5186432041926737</v>
       </c>
       <c r="P7">
-        <v>0.8393708641772409</v>
+        <v>0.5186432041926737</v>
       </c>
       <c r="Q7">
-        <v>0.004910157684444444</v>
+        <v>0.001874732444444445</v>
       </c>
       <c r="R7">
-        <v>0.04419141916</v>
+        <v>0.016872592</v>
       </c>
       <c r="S7">
-        <v>0.03116867201387869</v>
+        <v>0.05972827413395872</v>
       </c>
       <c r="T7">
-        <v>0.0311686720138787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.140313</v>
-      </c>
-      <c r="H8">
-        <v>0.420939</v>
-      </c>
-      <c r="I8">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J8">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.022828</v>
-      </c>
-      <c r="N8">
-        <v>0.068484</v>
-      </c>
-      <c r="O8">
-        <v>0.07816148625976677</v>
-      </c>
-      <c r="P8">
-        <v>0.07816148625976678</v>
-      </c>
-      <c r="Q8">
-        <v>0.003203065164</v>
-      </c>
-      <c r="R8">
-        <v>0.028827586476</v>
-      </c>
-      <c r="S8">
-        <v>0.0203323994771244</v>
-      </c>
-      <c r="T8">
-        <v>0.02033239947712441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.140313</v>
-      </c>
-      <c r="H9">
-        <v>0.420939</v>
-      </c>
-      <c r="I9">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J9">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.02408566666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.072257</v>
-      </c>
-      <c r="O9">
-        <v>0.08246764956299234</v>
-      </c>
-      <c r="P9">
-        <v>0.08246764956299234</v>
-      </c>
-      <c r="Q9">
-        <v>0.003379532147</v>
-      </c>
-      <c r="R9">
-        <v>0.030415789323</v>
-      </c>
-      <c r="S9">
-        <v>0.02145257562377458</v>
-      </c>
-      <c r="T9">
-        <v>0.02145257562377458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.140313</v>
-      </c>
-      <c r="H10">
-        <v>0.420939</v>
-      </c>
-      <c r="I10">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J10">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2451483333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.7354449999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.8393708641772408</v>
-      </c>
-      <c r="P10">
-        <v>0.8393708641772409</v>
-      </c>
-      <c r="Q10">
-        <v>0.03439749809499999</v>
-      </c>
-      <c r="R10">
-        <v>0.309577482855</v>
-      </c>
-      <c r="S10">
-        <v>0.2183482497145867</v>
-      </c>
-      <c r="T10">
-        <v>0.2183482497145867</v>
+        <v>0.05972827413395872</v>
       </c>
     </row>
   </sheetData>
